--- a/Taller de SO/Taller SO.xlsx
+++ b/Taller de SO/Taller SO.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Tec 2024\Taller de SO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5C28A063-3B70-47F6-B211-834B0B6C0766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5AB7F13-A252-4E88-80C8-768C5AA0F14C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UNIDAD 1" sheetId="1" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -620,15 +620,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -689,9 +688,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -729,7 +728,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -835,7 +834,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -977,21 +976,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43" customWidth="1"/>
     <col min="2" max="3" width="6.6640625" customWidth="1"/>
@@ -999,7 +998,7 @@
     <col min="13" max="13" width="8.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1040,18 +1039,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="5">
         <v>1</v>
       </c>
       <c r="D2" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="5">
         <v>1</v>
@@ -1060,7 +1059,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" s="5">
         <v>1</v>
@@ -1077,11 +1076,11 @@
       <c r="L2" s="5">
         <v>1</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M2" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -1118,11 +1117,11 @@
       <c r="L3" s="5">
         <v>1</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -1159,11 +1158,11 @@
       <c r="L4" s="5">
         <v>1</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -1200,11 +1199,11 @@
       <c r="L5" s="5">
         <v>1</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -1241,11 +1240,11 @@
       <c r="L6" s="5">
         <v>1</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -1282,11 +1281,11 @@
       <c r="L7" s="5">
         <v>1</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -1323,11 +1322,11 @@
       <c r="L8" s="5">
         <v>1</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
@@ -1364,11 +1363,11 @@
       <c r="L9" s="5">
         <v>1</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
@@ -1405,11 +1404,11 @@
       <c r="L10" s="5">
         <v>1</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
@@ -1446,11 +1445,11 @@
       <c r="L11" s="5">
         <v>1</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
@@ -1487,11 +1486,11 @@
       <c r="L12" s="5">
         <v>1</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
@@ -1528,11 +1527,11 @@
       <c r="L13" s="5">
         <v>1</v>
       </c>
-      <c r="M13" s="7">
+      <c r="M13" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
@@ -1569,11 +1568,11 @@
       <c r="L14" s="5">
         <v>1</v>
       </c>
-      <c r="M14" s="7">
+      <c r="M14" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
@@ -1610,11 +1609,11 @@
       <c r="L15" s="5">
         <v>1</v>
       </c>
-      <c r="M15" s="7">
+      <c r="M15" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
@@ -1651,11 +1650,11 @@
       <c r="L16" s="5">
         <v>1</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M16" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
@@ -1692,48 +1691,48 @@
       <c r="L17" s="5">
         <v>1</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M17" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="7">
-        <v>1</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1</v>
-      </c>
-      <c r="E18" s="7">
-        <v>1</v>
-      </c>
-      <c r="F18" s="7">
-        <v>1</v>
-      </c>
-      <c r="G18" s="7">
-        <v>1</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1</v>
-      </c>
-      <c r="I18" s="7">
-        <v>1</v>
-      </c>
-      <c r="J18" s="7">
-        <v>1</v>
-      </c>
-      <c r="K18" s="7">
-        <v>1</v>
-      </c>
-      <c r="L18" s="7">
-        <v>1</v>
-      </c>
-      <c r="M18" s="7">
+      <c r="B18" s="2">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1</v>
+      </c>
+      <c r="L18" s="2">
+        <v>1</v>
+      </c>
+      <c r="M18" s="2">
         <v>100</v>
       </c>
     </row>
@@ -1743,10 +1742,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -1764,7 +1763,7 @@
       <c r="B1" s="3">
         <v>45348</v>
       </c>
-      <c r="C1" s="8">
+      <c r="C1" s="7">
         <v>45349</v>
       </c>
     </row>
@@ -1911,10 +1910,10 @@
       <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="2">
         <v>1</v>
       </c>
       <c r="C18" s="1"/>
